--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_186.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_186.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,39 +488,48 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_29</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2363636363636364</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:7/C', 'A#:min/C#'], ['A#:min', 'F:maj/A', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2202898550724638</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:7', 'D#:min'], ['D#:min', 'A#:maj', 'D#:min']]</t>
+          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(0.8, 2.88), (14.0, 16.38)]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(9.1, 13.86), (0.78, 5.98)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:02.980000', '0:00:06.700000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:06.920000', '0:00:13.460000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
@@ -524,597 +538,618 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_14</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2424242424242424</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_135</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4869565217391305</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(21.1, 25.82)]</t>
+          <t>[['E', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(80.08, 87.62)]</t>
+          <t>[('0:02:12.300000', '0:02:17.480000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:14.450219', '0:00:23.088042')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_120</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2015810276679842</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>jaah_36</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_251</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.139751552795031</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:7/C', 'A#:min/C#']]</t>
+          <t>[['G', 'C:7', 'G']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(2.58, 5.02)]</t>
+          <t>[['D', 'G:7', 'D']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(2.6, 4.5)]</t>
+          <t>[('0:00:02.230000', '0:00:07.630000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:02:19.240204', '0:02:24.766553')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_206</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_136</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_165</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.115546218487395</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
+          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(58.78, 61.54)]</t>
+          <t>[['A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(22.6, 25.72)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:02.500000', '0:00:26.200000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:52.680839', '0:00:55.420793')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_61</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.162280701754386</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>isophonics_30</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_47</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.108187134502924</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#', 'F#:min']]</t>
+          <t>[['D', 'E', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(8.18, 13.26)]</t>
+          <t>[['D', 'E', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(3.744784, 6.774988)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:01.921537', '0:00:06.194008')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:17.374897', '0:00:25.443832')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_165</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1274509803921569</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
-        </is>
+          <t>schubert-winterreise_34</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_22</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1666666666666667</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['C:min/G', 'G:7', 'C:min', 'C:min'], ['D#/G', 'C:min/G', 'G:7', 'C:min'], ['C:min', 'C:min/G', 'G:7', 'C:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(75.8, 79.6)]</t>
+          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E'], ['C:maj', 'A:min/E', 'E:7', 'A:min'], ['A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(3.599751, 6.705328)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:21.940000', '0:00:27.520000'), ('0:01:02', '0:01:07.100000'), ('0:00:20.780000', '0:00:25.360000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:44.820000', '0:00:53.460000'), ('0:00:41.960000', '0:00:51.360000'), ('0:00:48.480000', '0:01:00.840000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_30</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_55</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.08492822966507177</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D', 'D/7', 'A/3'], ['A', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_28</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F', 'F', 'C'], ['C', 'C', 'F']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(10.12979, 11.569428), (14.448702, 17.908476)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(37.28, 38.58), (36.0, 37.28)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+          <t>[('0:00:15.300000', '0:00:19.720000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:07.900000', '0:00:20.520000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(0.3, 20.7)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(2.36, 24.96)]</t>
+          <t>[('0:01:40.240000', '0:01:42.380000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:25.180000', '0:00:55.620000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_67</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2015810276679842</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_74</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_232</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3888888888888889</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>[['E', 'A', 'E', 'A', 'E'], ['A', 'E', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(3.1, 5.58)]</t>
+          <t>[['C', 'F', 'C', 'F', 'C'], ['F', 'C', 'F', 'C', 'F']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(0.3, 2.82)]</t>
+          <t>[('0:00:37.995918', '0:00:52.299410'), ('0:00:35.197913', '0:00:49.466575')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:16.179070', '0:00:25.606371'), ('0:00:18.071496', '0:00:27.510408')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_105</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1517241379310345</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
-        </is>
+          <t>isophonics_46</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4155405405405406</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(19.48, 25.86)]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:28.921995', '0:00:33.101587')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_124</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3611111111111111</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F', 'Bb', 'F', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(15.124263, 21.811609)]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(60.04, 70.96)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+          <t>[('0:00:00.220000', '0:00:21.940000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:01.360000', '0:00:24.160000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_116</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2528735632183908</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_60</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_215</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min', 'C:maj', 'F:min']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(24.82, 59.74)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(12.28, 20.14)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:06.300000', '0:01:59.400000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:07.480000', '0:01:36.940000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+          <t>schubert-winterreise_42</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_212</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>1</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['G:(3,5,b7,b9)', 'C:min', 'E:dim7'], ['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj'], ['F#:dim7', 'G:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(5.44, 113.76)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(6.3, 113.78)]</t>
+          <t>[('0:00:11.760000', '0:00:15.640000'), ('0:00:20.540000', '0:00:23.160000'), ('0:00:16.240000', '0:00:17.660000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:13.980000', '0:00:18.160000'), ('0:00:23.460000', '0:00:26.480000'), ('0:00:18.840000', '0:00:20.320000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_68</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_0</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2183908045977011</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>[['F:maj', 'C:maj', 'F:7', 'A#:maj', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj'], ['A:7', 'D:min', 'C:7', 'F:maj', 'A:maj/C#', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(8.74, 17.66)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(25.22, 27.17)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:00.220000', '0:00:20.820000'), ('0:00:55.840000', '0:01:17.800000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:00.860000', '0:00:25.020000'), ('0:01:01.240000', '0:01:24.100000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.225</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_1</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(129.38, 134.38)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(11.384, 18.318)]</t>
+          <t>[('0:00:10.200000', '0:00:29.800000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_73</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_156</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.3025210084033613</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(65.2, 67.5)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(11.070127, 13.723731)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:07.020000', '0:00:24.780000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
